--- a/Burndown Chart-Avatar Supply Visibility.xlsx
+++ b/Burndown Chart-Avatar Supply Visibility.xlsx
@@ -222,10 +222,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'20190930-20191011'!$A$2:$A$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'20190930-20191011'!$A$2:$A$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'20190930-20191011'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43738</c:v>
                 </c:pt>
@@ -255,56 +262,51 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43747</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43748</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20190930-20191011'!$B$2:$B$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'20190930-20191011'!$B$2:$B$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'20190930-20191011'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -357,10 +359,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'20190930-20191011'!$A$2:$A$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'20190930-20191011'!$A$2:$A$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'20190930-20191011'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43738</c:v>
                 </c:pt>
@@ -390,26 +399,30 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43747</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43748</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20190930-20191011'!$C$2:$C$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'20190930-20191011'!$C$2:$C$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'20190930-20191011'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
@@ -1462,7 +1475,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1498,7 +1511,7 @@
         <v>43739</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>34</v>
@@ -1509,7 +1522,10 @@
         <v>43740</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1517,7 +1533,7 @@
         <v>43741</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1525,7 +1541,7 @@
         <v>43742</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1533,7 +1549,7 @@
         <v>43743</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1541,7 +1557,7 @@
         <v>43744</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1549,7 +1565,7 @@
         <v>43745</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1557,7 +1573,7 @@
         <v>43746</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1565,24 +1581,14 @@
         <v>43747</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>43748</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>43749</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Burndown Chart-Avatar Supply Visibility.xlsx
+++ b/Burndown Chart-Avatar Supply Visibility.xlsx
@@ -424,6 +424,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1474,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1534,6 +1537,9 @@
       </c>
       <c r="B5">
         <v>19</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">

--- a/Burndown Chart-Avatar Supply Visibility.xlsx
+++ b/Burndown Chart-Avatar Supply Visibility.xlsx
@@ -426,6 +426,15 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
@@ -1478,7 +1487,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1549,6 +1558,9 @@
       <c r="B6">
         <v>14</v>
       </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -1557,6 +1569,9 @@
       <c r="B7">
         <v>14</v>
       </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -1564,6 +1579,9 @@
       </c>
       <c r="B8">
         <v>14</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">

--- a/Burndown Chart-Avatar Supply Visibility.xlsx
+++ b/Burndown Chart-Avatar Supply Visibility.xlsx
@@ -435,6 +435,9 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
@@ -1487,7 +1490,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1590,6 +1593,9 @@
       </c>
       <c r="B9">
         <v>9</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">

--- a/Burndown Chart-Avatar Supply Visibility.xlsx
+++ b/Burndown Chart-Avatar Supply Visibility.xlsx
@@ -439,6 +439,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,7 +1496,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1605,6 +1611,9 @@
       <c r="B10">
         <v>4</v>
       </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -1612,6 +1621,9 @@
       </c>
       <c r="B11">
         <v>0</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
